--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\NN\Project_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284BE7C-B3FD-4C7E-9A3D-8FB07B79BC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35C441-85F3-4314-A610-8469B3100265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{269F56E4-E8C9-4064-931E-C8B3DE4D539C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{269F56E4-E8C9-4064-931E-C8B3DE4D539C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Results</t>
   </si>
@@ -52,13 +52,55 @@
   </si>
   <si>
     <t>MSE Loss</t>
+  </si>
+  <si>
+    <t>LM (MLM) + Regression Head (Uncertainty)</t>
+  </si>
+  <si>
+    <t>LM(MLM) + Regression Head (S2L)</t>
+  </si>
+  <si>
+    <t>LM (MLM) + Regression Head (Influence)</t>
+  </si>
+  <si>
+    <t>LM (BitFit) + Regression Head (Uncertainty)</t>
+  </si>
+  <si>
+    <t>lr = 0.001</t>
+  </si>
+  <si>
+    <t>LM (LoRA) + Regression Head (Uncertainty)</t>
+  </si>
+  <si>
+    <t>lr = 0.0005</t>
+  </si>
+  <si>
+    <t>lr = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until epoch 27 </t>
+  </si>
+  <si>
+    <t>No sign of improvement was observed for LoRA</t>
+  </si>
+  <si>
+    <t>LM (iA3) + Regression Head (Uncertainity)</t>
+  </si>
+  <si>
+    <t>LM (BitFit) + Multi-input Model (Uncertainty)</t>
+  </si>
+  <si>
+    <t>until epoch 12</t>
+  </si>
+  <si>
+    <t>lr = 0.0201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +135,26 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -155,39 +217,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="3" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -203,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,79 +572,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF28607A-A27A-4709-98E4-05981E12418A}">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="6" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.66106900000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.60789700000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="6" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.78024499999999997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.62325799999999998</v>
       </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.73716999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.65515999999999996</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.70187600000000006</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.74970700000000001</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.754243</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.70196999999999998</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.52102999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.47571000000000002</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.83029600000000003</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.78147800000000001</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.431405</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.526691</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.578789</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.585484</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.2781659999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.1639619999999999</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.52991500000000002</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.57168799999999997</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J13:L14"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005B16C48BB9F15F479C887E78F4DA2D3D" ma:contentTypeVersion="1" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4994e22a66d88a24a86c3b6029e294db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="62f4efc1-69bd-4bb8-9273-7ece83485167" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="81221b41f998e03b5efa6f04b8b5be53" ns3:_="">
     <xsd:import namespace="62f4efc1-69bd-4bb8-9273-7ece83485167"/>
@@ -697,22 +936,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8307410-27B4-4D65-8B27-246FA8427637}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922BD92-730C-4C19-BECC-9D053468019E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="62f4efc1-69bd-4bb8-9273-7ece83485167"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A9F67BD-2167-4FE8-8EEF-24C496CD3467}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -728,28 +976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8307410-27B4-4D65-8B27-246FA8427637}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922BD92-730C-4C19-BECC-9D053468019E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="62f4efc1-69bd-4bb8-9273-7ece83485167"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\NN\Project_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35C441-85F3-4314-A610-8469B3100265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1F6606-06CE-4BF5-8A5F-B94E0ACFA7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{269F56E4-E8C9-4064-931E-C8B3DE4D539C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{269F56E4-E8C9-4064-931E-C8B3DE4D539C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Results</t>
   </si>
@@ -57,9 +57,6 @@
     <t>LM (MLM) + Regression Head (Uncertainty)</t>
   </si>
   <si>
-    <t>LM(MLM) + Regression Head (S2L)</t>
-  </si>
-  <si>
     <t>LM (MLM) + Regression Head (Influence)</t>
   </si>
   <si>
@@ -94,13 +91,37 @@
   </si>
   <si>
     <t>lr = 0.0201</t>
+  </si>
+  <si>
+    <t>LM(MLM) + Regression Head (S2L-100)</t>
+  </si>
+  <si>
+    <t>LM(MLM) + Regression Head (S2L-30)</t>
+  </si>
+  <si>
+    <t>until epoch 8</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RMSE Loss</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +177,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -175,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,14 +245,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,9 +294,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="3" builtinId="15"/>
@@ -572,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF28607A-A27A-4709-98E4-05981E12418A}">
-  <dimension ref="B3:L17"/>
+  <dimension ref="B3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +636,7 @@
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
@@ -657,137 +710,341 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>0.70187600000000006</v>
+        <v>1.5213300000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.74970700000000001</v>
+        <v>1.4467179999999999</v>
       </c>
       <c r="H9" s="2"/>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2">
-        <v>0.754243</v>
+        <v>0.70187600000000006</v>
       </c>
       <c r="G10" s="2">
-        <v>0.70196999999999998</v>
+        <v>0.74970700000000001</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.754243</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.70196999999999998</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.52102999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.47571000000000002</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.52102999999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.47571000000000002</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.83029600000000003</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.78147800000000001</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.83029600000000003</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.78147800000000001</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2">
-        <v>1.431405</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.526691</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.578789</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.585484</v>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.431405</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.526691</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.578789</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.585484</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.2781659999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.1639619999999999</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
-        <v>1.2781659999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.1639619999999999</v>
-      </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.52991500000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.57168799999999997</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="5:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="11"/>
+      <c r="F22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <f>SQRT(F6)</f>
+        <v>0.81306149828902863</v>
+      </c>
+      <c r="G23" s="15">
+        <f>SQRT(G6)</f>
+        <v>0.77967749743082881</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="15">
+        <f xml:space="preserve"> F23-G23</f>
+        <v>3.3384000858199814E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15">
+        <f>SQRT(F7)</f>
+        <v>0.88331477967936212</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" ref="G24:G29" si="0">SQRT(G7)</f>
+        <v>0.78946690874285541</v>
+      </c>
+      <c r="I24" s="15">
+        <f>F24-G24</f>
+        <v>9.3847870936506705E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" ref="F25:F29" si="1">SQRT(F8)</f>
+        <v>0.85858604693996743</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.80941954510624459</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2334220688799111</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="0"/>
+        <v>1.202795909537441</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.52991500000000002</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.57168799999999997</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.83778040082112215</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.86585622363069037</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.86847164605414728</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.83783649956301143</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.72182407829054862</v>
+      </c>
+      <c r="G29" s="15">
+        <f>SQRT(G12)</f>
+        <v>0.68971733340550467</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F30" s="15">
+        <f>SQRT(F14)</f>
+        <v>0.91120579453820416</v>
+      </c>
+      <c r="G30" s="15">
+        <f>SQRT(G14)</f>
+        <v>0.88401244335133655</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" ref="F31:G34" si="2">SQRT(F15)</f>
+        <v>1.1964133900955807</v>
+      </c>
+      <c r="G31" s="15">
+        <f>SQRT(G15)</f>
+        <v>1.2355933797168064</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76078183469375771</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76516926232043592</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1305600382111514</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0788707058772149</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="2"/>
+        <v>0.72795260834754894</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="2"/>
+        <v>0.75610052241748915</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="J14:L15"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
